--- a/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Ventas/Recepcion/Toyota - CEL - Analisis - Ventas_Recepcion.xlsx
+++ b/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Ventas/Recepcion/Toyota - CEL - Analisis - Ventas_Recepcion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\TOYOTA - Celaya\Fuentes - Toyota\Distribuidor\Ventas\Recepcion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\Fuentes - Toyota\Distribuidor\Ventas\Recepcion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5CEC22-D453-4328-AF47-42805CBFFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA95E86-1C8D-4DAE-BE04-B1A726CF42DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="225" windowWidth="19950" windowHeight="10530" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="19950" windowHeight="10800" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RECEPCION VTAS" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
   <si>
     <t>Tipo</t>
   </si>
@@ -317,11 +317,6 @@
     <t>OVIEA</t>
   </si>
   <si>
-    <t>Se realiza la actividad cuando los asesores van a levantar un pedido …   cuentan con (cotizacion, datos especificos cliente, e.g. INE, Comprobante Domicilio, Const. SAT, y datos de contacto).
-1. La pantalla requiere que sepan el perfil para jalar los datos y la busqueda solo muestra el numero de perfil.
-2. Los datos del perfil no estan asociados con el CAT Clientes, por ese motivo y por atencion al cliente (desesperan) al perfilar solo el nombre.</t>
-  </si>
-  <si>
     <t>Liberar Perfil - Alta</t>
   </si>
   <si>
@@ -332,10 +327,6 @@
   </si>
   <si>
     <t>Opciones - Ventas Vehiculos - Seguimiento - Libera Perfil - Consulta Liberacion</t>
-  </si>
-  <si>
-    <t>1. La busqueda se complica porque no hay certeza de como se registro el nombre del cliente.
-2. En la busqueda solo permite buscar por nombre (ver punto 1).</t>
   </si>
   <si>
     <t>1. Separar el nombre del cliente de los perfiles en campos : nombre, apellidos (c/u)
@@ -369,9 +360,6 @@
   </si>
   <si>
     <t>OVIU</t>
-  </si>
-  <si>
-    <t>No usan la opcion, solo permite registrar datos de estatus de actividades del vendedor pero no hace nada (no guarda los cqambios).</t>
   </si>
   <si>
     <t>Reportes - Expedientes Abiertos</t>
@@ -464,9 +452,6 @@
     <t>Visita</t>
   </si>
   <si>
-    <t>1ra Visita o No</t>
-  </si>
-  <si>
     <t>Medio de Contacto</t>
   </si>
   <si>
@@ -483,9 +468,6 @@
   </si>
   <si>
     <t>Modelo Requerido</t>
-  </si>
-  <si>
-    <t>Vehiculo(s) de Interes</t>
   </si>
   <si>
     <t>Catalogado / Libre</t>
@@ -635,6 +617,55 @@
   </si>
   <si>
     <t>Hay una opcion similar en K75 pero no se guarda los datos</t>
+  </si>
+  <si>
+    <t>Vehiculo(s) de Interes ( 1 .. N )</t>
+  </si>
+  <si>
+    <t>1ra Visita o No ( Subsecuente )</t>
+  </si>
+  <si>
+    <t>Se realiza la actividad cuando los asesores van a levantar un pedido …   cuentan con (cotizacion, datos especificos cliente, e.g. INE, Comprobante Domicilio, Const. SAT, y datos de contacto).
+1. La pantalla requiere que sepan el perfil para jalar los datos y la busqueda solo muestra el numero de perfil.
+2. Los datos del perfil no estan asociados con el CAT Clientes, por ese motivo y por atencion al cliente (para que no desesperen) al perfilar solo le toman el nombre.</t>
+  </si>
+  <si>
+    <t>1. La busqueda se complica porque no hay certeza de como se registro el nombre del cliente (orden de nombre y apellidos).
+2. En la busqueda solo permite buscar por nombre (ver punto 1).</t>
+  </si>
+  <si>
+    <t>No usan la opcion, solo permite registrar datos de estatus de actividades del vendedor pero no hace nada (no guarda los caambios).</t>
+  </si>
+  <si>
+    <t>En las Actividades del Vendedor como Demostracion Estatica, Prueba de Manejo, Etc. Aunque Actualizan los Datos el Sistema No los Guarda.</t>
+  </si>
+  <si>
+    <t>V - R - 002</t>
+  </si>
+  <si>
+    <t>Llevan Manual el Control de las FACTURAS que se Liberan y se Entregan a los Clientes, se podria Implementar que el Sistema tenga datos que permitan dar seguimiento a las FACTURAS en Credito hasta su Liberacion y Entrega al Cliente.
+En caso de incluir este control, deberian incluirse los campos de  Fecha de Entrega ( Entrega de la Factura Fisica del Auto Financiado Liberado, el un Check de Acuse de Recibo.</t>
+  </si>
+  <si>
+    <t>V - R - 003</t>
+  </si>
+  <si>
+    <t>Fecha Entrega</t>
+  </si>
+  <si>
+    <t>F, FH</t>
+  </si>
+  <si>
+    <t>Acuse Entrega</t>
+  </si>
+  <si>
+    <t>Facturacion</t>
+  </si>
+  <si>
+    <t>Corresponderia a Fecha de Entrega de la Factura al Cliente de un Auto Liberado de Financiamiento.</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -1260,16 +1291,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B23956-284C-4842-B9B2-8E2C9A047536}">
   <dimension ref="B2:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="71.85546875" style="2" customWidth="1"/>
@@ -1459,13 +1491,13 @@
         <v>38</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="25" t="s">
         <v>64</v>
       </c>
       <c r="AB4" s="32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
@@ -1476,10 +1508,12 @@
         <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>53</v>
       </c>
@@ -1520,7 +1554,9 @@
         <v>61</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" s="8" t="s">
         <v>57</v>
       </c>
@@ -1563,7 +1599,9 @@
         <v>62</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="8" t="s">
         <v>59</v>
       </c>
@@ -1588,17 +1626,17 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Y7" s="12"/>
       <c r="Z7" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA7" s="24" t="s">
         <v>65</v>
       </c>
       <c r="AB7" s="24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
@@ -1614,7 +1652,9 @@
       <c r="E8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="8" t="s">
         <v>66</v>
       </c>
@@ -1650,7 +1690,7 @@
       <c r="AA8" s="24"/>
       <c r="AB8" s="24"/>
     </row>
-    <row r="9" spans="2:28" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" ht="120" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
@@ -1658,12 +1698,14 @@
         <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="8" t="s">
         <v>71</v>
       </c>
@@ -1687,14 +1729,14 @@
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
@@ -1707,17 +1749,19 @@
         <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>4</v>
@@ -1736,14 +1780,14 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="Y10" s="12"/>
       <c r="Z10" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
@@ -1756,17 +1800,19 @@
         <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>4</v>
@@ -1785,19 +1831,19 @@
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y11" s="12"/>
       <c r="Z11" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA11" s="24"/>
       <c r="AB11" s="24"/>
     </row>
-    <row r="12" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
@@ -1805,15 +1851,17 @@
         <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>5</v>
@@ -1833,12 +1881,16 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="24"/>
+      <c r="Z12" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
+      <c r="AB12" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -1848,15 +1900,17 @@
         <v>52</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>3</v>
@@ -1889,15 +1943,15 @@
         <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>4</v>
@@ -1916,14 +1970,14 @@
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y14" s="12"/>
       <c r="Z14" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA14" s="24"/>
       <c r="AB14" s="24"/>
@@ -1936,15 +1990,17 @@
         <v>52</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>4</v>
@@ -1963,17 +2019,17 @@
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="12"/>
       <c r="Z15" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AB15" s="27"/>
     </row>
@@ -1985,12 +2041,14 @@
         <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="G16" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2009,16 +2067,16 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Y16" s="12"/>
       <c r="Z16" s="24"/>
       <c r="AA16" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AB16" s="24"/>
     </row>
-    <row r="17" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" ht="120" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
@@ -2026,10 +2084,12 @@
         <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
@@ -2049,17 +2109,19 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="24" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AA17" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB17" s="24"/>
+        <v>144</v>
+      </c>
+      <c r="AB17" s="24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
@@ -2192,10 +2254,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82188076-37BB-4794-A22C-2543EB8D65FF}">
-  <dimension ref="B2:X16"/>
+  <dimension ref="B2:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,16 +2289,16 @@
   <sheetData>
     <row r="2" spans="2:22" ht="135" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K2" s="16"/>
       <c r="U2" s="16" t="s">
@@ -2250,13 +2313,13 @@
         <v>43</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>11</v>
@@ -2265,13 +2328,13 @@
         <v>48</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>1</v>
@@ -2280,10 +2343,10 @@
         <v>45</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P3" s="20" t="s">
         <v>2</v>
@@ -2298,27 +2361,27 @@
         <v>46</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>51</v>
@@ -2327,10 +2390,13 @@
         <v>52</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>60</v>
@@ -2341,16 +2407,16 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>51</v>
@@ -2359,10 +2425,13 @@
         <v>52</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>60</v>
@@ -2373,16 +2442,16 @@
     </row>
     <row r="6" spans="2:22" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>51</v>
@@ -2391,10 +2460,13 @@
         <v>52</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>60</v>
@@ -2405,16 +2477,16 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>125</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>51</v>
@@ -2423,10 +2495,13 @@
         <v>52</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>60</v>
@@ -2437,16 +2512,16 @@
     </row>
     <row r="8" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>51</v>
@@ -2455,13 +2530,15 @@
         <v>52</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="L8" s="16" t="s">
         <v>18</v>
       </c>
@@ -2479,16 +2556,16 @@
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>51</v>
@@ -2497,13 +2574,15 @@
         <v>52</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="L9" s="16" t="s">
         <v>18</v>
       </c>
@@ -2520,16 +2599,16 @@
     </row>
     <row r="10" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>51</v>
@@ -2538,10 +2617,13 @@
         <v>52</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>60</v>
@@ -2552,16 +2634,16 @@
     </row>
     <row r="11" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>51</v>
@@ -2570,13 +2652,15 @@
         <v>52</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="L11" s="28" t="s">
         <v>18</v>
       </c>
@@ -2593,13 +2677,13 @@
     </row>
     <row r="12" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>51</v>
@@ -2608,13 +2692,13 @@
         <v>52</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>60</v>
@@ -2625,91 +2709,173 @@
     </row>
     <row r="13" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>60</v>
       </c>
+      <c r="R13" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>60</v>
       </c>
+      <c r="R14" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="B15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>161</v>
+      <c r="I15" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>60</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
